--- a/activities.xlsx
+++ b/activities.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       <c r="I2" s="2" t="n">
         <v>45506</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="2" t="n">
         <v>45506.65737268519</v>
       </c>
     </row>
@@ -568,7 +568,7 @@
       <c r="I3" s="2" t="n">
         <v>45509</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="2" t="n">
         <v>45509.30509259259</v>
       </c>
     </row>
@@ -608,7 +608,7 @@
       <c r="I4" s="2" t="n">
         <v>45511</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="2" t="n">
         <v>45511.72934027778</v>
       </c>
     </row>
@@ -648,7 +648,7 @@
       <c r="I5" s="2" t="n">
         <v>45512</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="2" t="n">
         <v>45512.70988425926</v>
       </c>
     </row>
@@ -688,7 +688,7 @@
       <c r="I6" s="2" t="n">
         <v>45513</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="2" t="n">
         <v>45513.57965277778</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
       <c r="I7" s="2" t="n">
         <v>45514</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="2" t="n">
         <v>45514.71351851852</v>
       </c>
     </row>
@@ -768,7 +768,7 @@
       <c r="I8" s="2" t="n">
         <v>45516</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="2" t="n">
         <v>45516.40815972222</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
       <c r="I9" s="2" t="n">
         <v>45517</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="2" t="n">
         <v>45517.48534722222</v>
       </c>
     </row>
@@ -848,7 +848,7 @@
       <c r="I10" s="2" t="n">
         <v>45520</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="2" t="n">
         <v>45520.40297453704</v>
       </c>
     </row>
@@ -888,7 +888,7 @@
       <c r="I11" s="2" t="n">
         <v>45520</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="2" t="n">
         <v>45520.23525462963</v>
       </c>
     </row>
@@ -928,7 +928,7 @@
       <c r="I12" s="2" t="n">
         <v>45521</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="2" t="n">
         <v>45521.74673611111</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="I13" s="2" t="n">
         <v>45526</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="2" t="n">
         <v>45526.55912037037</v>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       <c r="I14" s="2" t="n">
         <v>45527</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="2" t="n">
         <v>45527.53107638889</v>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       <c r="I15" s="2" t="n">
         <v>45537</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="2" t="n">
         <v>45537.59944444444</v>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       <c r="I16" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J16" s="2" t="n">
         <v>45809.51768518519</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       <c r="I17" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="2" t="n">
         <v>45839.70873842593</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       <c r="I18" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J18" s="2" t="n">
         <v>45839.49333333333</v>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       <c r="I19" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="2" t="n">
         <v>45841.725</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="I20" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="2" t="n">
         <v>45841.70899305555</v>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       <c r="I21" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="2" t="n">
         <v>45842.574375</v>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       <c r="I22" s="2" t="n">
         <v>45843</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="J22" s="2" t="n">
         <v>45843.3903587963</v>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       <c r="I23" s="2" t="n">
         <v>45844</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="2" t="n">
         <v>45844.37083333333</v>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="I24" s="2" t="n">
         <v>45844</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="J24" s="2" t="n">
         <v>45844.35699074074</v>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="I25" s="2" t="n">
         <v>45845</v>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="J25" s="2" t="n">
         <v>45845.7528125</v>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       <c r="I26" s="2" t="n">
         <v>45845</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="2" t="n">
         <v>45845.59943287037</v>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       <c r="I27" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="2" t="n">
         <v>45847.7578587963</v>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       <c r="I28" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="J28" s="2" t="n">
         <v>45848.26584490741</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       <c r="I29" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="2" t="n">
         <v>45848.24932870371</v>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       <c r="I30" s="2" t="n">
         <v>45850</v>
       </c>
-      <c r="J30" s="3" t="n">
+      <c r="J30" s="2" t="n">
         <v>45850.57332175926</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="I31" s="2" t="n">
         <v>45850</v>
       </c>
-      <c r="J31" s="3" t="n">
+      <c r="J31" s="2" t="n">
         <v>45850.56172453704</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       <c r="I32" s="2" t="n">
         <v>45851</v>
       </c>
-      <c r="J32" s="3" t="n">
+      <c r="J32" s="2" t="n">
         <v>45851.57129629629</v>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       <c r="I33" s="2" t="n">
         <v>45851</v>
       </c>
-      <c r="J33" s="3" t="n">
+      <c r="J33" s="2" t="n">
         <v>45851.56195601852</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       <c r="I34" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="J34" s="3" t="n">
+      <c r="J34" s="2" t="n">
         <v>45852.73024305556</v>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="I35" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="J35" s="3" t="n">
+      <c r="J35" s="2" t="n">
         <v>45852.26733796296</v>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       <c r="I36" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="J36" s="3" t="n">
+      <c r="J36" s="2" t="n">
         <v>45852.25270833333</v>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       <c r="I37" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="J37" s="3" t="n">
+      <c r="J37" s="2" t="n">
         <v>45854.78303240741</v>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       <c r="I38" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="J38" s="3" t="n">
+      <c r="J38" s="2" t="n">
         <v>45854.76824074074</v>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       <c r="I39" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="J39" s="3" t="n">
+      <c r="J39" s="2" t="n">
         <v>45856.71537037037</v>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       <c r="I40" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="J40" s="3" t="n">
+      <c r="J40" s="2" t="n">
         <v>45856.47137731482</v>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       <c r="I41" s="2" t="n">
         <v>45857</v>
       </c>
-      <c r="J41" s="3" t="n">
+      <c r="J41" s="2" t="n">
         <v>45857.41128472222</v>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       <c r="I42" s="2" t="n">
         <v>45859</v>
       </c>
-      <c r="J42" s="3" t="n">
+      <c r="J42" s="2" t="n">
         <v>45859.70506944445</v>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       <c r="I43" s="2" t="n">
         <v>45861</v>
       </c>
-      <c r="J43" s="3" t="n">
+      <c r="J43" s="2" t="n">
         <v>45861.79785879629</v>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       <c r="I44" s="2" t="n">
         <v>45862</v>
       </c>
-      <c r="J44" s="3" t="n">
+      <c r="J44" s="2" t="n">
         <v>45862.80962962963</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="I45" s="2" t="n">
         <v>45862</v>
       </c>
-      <c r="J45" s="3" t="n">
+      <c r="J45" s="2" t="n">
         <v>45862.42034722222</v>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       <c r="I46" s="2" t="n">
         <v>45862</v>
       </c>
-      <c r="J46" s="3" t="n">
+      <c r="J46" s="2" t="n">
         <v>45862.41144675926</v>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       <c r="I47" s="2" t="n">
         <v>45863</v>
       </c>
-      <c r="J47" s="3" t="n">
+      <c r="J47" s="2" t="n">
         <v>45863.26918981481</v>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       <c r="I48" s="2" t="n">
         <v>45863</v>
       </c>
-      <c r="J48" s="3" t="n">
+      <c r="J48" s="2" t="n">
         <v>45863.25605324074</v>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       <c r="I49" s="2" t="n">
         <v>45864</v>
       </c>
-      <c r="J49" s="3" t="n">
+      <c r="J49" s="2" t="n">
         <v>45864.47795138889</v>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
       <c r="I50" s="2" t="n">
         <v>45865</v>
       </c>
-      <c r="J50" s="3" t="n">
+      <c r="J50" s="2" t="n">
         <v>45865.75774305555</v>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       <c r="I51" s="2" t="n">
         <v>45865</v>
       </c>
-      <c r="J51" s="3" t="n">
+      <c r="J51" s="2" t="n">
         <v>45865.58673611111</v>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       <c r="I52" s="2" t="n">
         <v>45866</v>
       </c>
-      <c r="J52" s="3" t="n">
+      <c r="J52" s="2" t="n">
         <v>45866.49239583333</v>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       <c r="I53" s="2" t="n">
         <v>45866</v>
       </c>
-      <c r="J53" s="3" t="n">
+      <c r="J53" s="2" t="n">
         <v>45866.45348379629</v>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       <c r="I54" s="2" t="n">
         <v>45866</v>
       </c>
-      <c r="J54" s="3" t="n">
+      <c r="J54" s="2" t="n">
         <v>45866.43949074074</v>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       <c r="I55" s="2" t="n">
         <v>45868</v>
       </c>
-      <c r="J55" s="3" t="n">
+      <c r="J55" s="2" t="n">
         <v>45868.76444444444</v>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       <c r="I56" s="2" t="n">
         <v>45868</v>
       </c>
-      <c r="J56" s="3" t="n">
+      <c r="J56" s="2" t="n">
         <v>45868.55048611111</v>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       <c r="I57" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="J57" s="3" t="n">
+      <c r="J57" s="2" t="n">
         <v>45869.58557870371</v>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       <c r="I58" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="J58" s="3" t="n">
+      <c r="J58" s="2" t="n">
         <v>45869.57331018519</v>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       <c r="I59" s="2" t="n">
         <v>45880</v>
       </c>
-      <c r="J59" s="3" t="n">
+      <c r="J59" s="2" t="n">
         <v>45880.60640046297</v>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       <c r="I60" s="2" t="n">
         <v>45911</v>
       </c>
-      <c r="J60" s="3" t="n">
+      <c r="J60" s="2" t="n">
         <v>45911.42447916666</v>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       <c r="I61" s="2" t="n">
         <v>45920</v>
       </c>
-      <c r="J61" s="3" t="n">
+      <c r="J61" s="2" t="n">
         <v>45920.13625</v>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       <c r="I62" s="2" t="n">
         <v>45943</v>
       </c>
-      <c r="J62" s="3" t="n">
+      <c r="J62" s="2" t="n">
         <v>45943.66292824074</v>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       <c r="I63" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="J63" s="3" t="n">
+      <c r="J63" s="2" t="n">
         <v>45945.64174768519</v>
       </c>
     </row>
@@ -3008,8 +3008,88 @@
       <c r="I64" s="2" t="n">
         <v>45951</v>
       </c>
-      <c r="J64" s="3" t="n">
+      <c r="J64" s="2" t="n">
         <v>45951.43487268518</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Joe Bowman</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Panthers</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>12</v>
+      </c>
+      <c r="H65" t="n">
+        <v>21</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>45951</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>45951.43487268518</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Joe Bowman</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Panthers</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>14</v>
+      </c>
+      <c r="H66" t="n">
+        <v>23</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>45953.55986111111</v>
       </c>
     </row>
   </sheetData>
